--- a/Testing/testingScenario.xlsx
+++ b/Testing/testingScenario.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\priyanka\Git Projects\flowChart\flowChartCreator\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\priyanka\Git Projects\WorkflowCreator\workFlowCreator\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D83BE9D-49A7-4F99-8062-FA6F4BAE55EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47945182-A372-4DFA-B4B2-154664BD2C36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{431FCF67-B4BC-4555-9CF3-EE271EC3F6ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="139">
   <si>
     <t>Test Id</t>
   </si>
@@ -78,9 +79,6 @@
     <t>Add shapes with shape type as Rectangle</t>
   </si>
   <si>
-    <t>Add shapes with shape type as triangle</t>
-  </si>
-  <si>
     <t>add shapes with shape type as square</t>
   </si>
   <si>
@@ -207,9 +205,6 @@
     <t>TC-008</t>
   </si>
   <si>
-    <t>TC-009</t>
-  </si>
-  <si>
     <t>TC-010</t>
   </si>
   <si>
@@ -436,6 +431,24 @@
   </si>
   <si>
     <t>TC-063</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>shapes description with around 5000 characters</t>
+  </si>
+  <si>
+    <t>Cancel icon on description popup</t>
+  </si>
+  <si>
+    <t>Cancel icon on modify popup</t>
+  </si>
+  <si>
+    <t>Shape is getting disappeared</t>
   </si>
 </sst>
 </file>
@@ -465,12 +478,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -500,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -520,6 +539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5442C6DF-9EED-412B-A4B9-E0469B0EAB07}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -867,7 +887,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -875,12 +895,14 @@
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -888,34 +910,40 @@
       <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -923,668 +951,760 @@
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>135</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="C27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="D34" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B36" s="5"/>
       <c r="C36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="B38" s="5"/>
       <c r="C38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C42" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>44</v>
+        <v>90</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>49</v>
+      <c r="C44" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B57" s="5"/>
-      <c r="C57" s="7" t="s">
-        <v>107</v>
+      <c r="C57" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" s="5"/>
-      <c r="C59" s="8" t="s">
-        <v>109</v>
+      <c r="C59" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="6" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF42A9D6-71D5-47FA-850E-FB9E9EF71A71}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testing/testingScenario.xlsx
+++ b/Testing/testingScenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\priyanka\Git Projects\WorkflowCreator\workFlowCreator\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47945182-A372-4DFA-B4B2-154664BD2C36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D482EC7-487F-4C38-84CC-13BDC215E280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{431FCF67-B4BC-4555-9CF3-EE271EC3F6ED}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="179">
   <si>
     <t>Test Id</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Test Scenario</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -449,6 +446,129 @@
   </si>
   <si>
     <t>Shape is getting disappeared</t>
+  </si>
+  <si>
+    <t>Result (22 feb)</t>
+  </si>
+  <si>
+    <t>Result (23 feb)</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Conditional Workflow</t>
+  </si>
+  <si>
+    <t>Add 2 way process on main workflow diagram</t>
+  </si>
+  <si>
+    <t>Add contional flow on main workflow diagram</t>
+  </si>
+  <si>
+    <t>Delete one of the process on 2 way process, so that single flow should be displayed</t>
+  </si>
+  <si>
+    <t>Add contional flow on Nested workflow diagram</t>
+  </si>
+  <si>
+    <t>Capability to add flow on conditional workflow</t>
+  </si>
+  <si>
+    <t>Modify shape popup should also have the option to modify conditions</t>
+  </si>
+  <si>
+    <t>Add N way process on Nested workflow diagram</t>
+  </si>
+  <si>
+    <t>Add N conditions on main workflow diagram</t>
+  </si>
+  <si>
+    <t>Verify Circle as shape can be added on conditions</t>
+  </si>
+  <si>
+    <t>Verify square as shape can be added on conditions</t>
+  </si>
+  <si>
+    <t>Verify Rectangle as shape can be added on conditions</t>
+  </si>
+  <si>
+    <t>Verify Diamond as shape can be added on conditions</t>
+  </si>
+  <si>
+    <t>Verify Oval as shape can be added on conditions</t>
+  </si>
+  <si>
+    <t>On click on shapes in conditional flow description should be added</t>
+  </si>
+  <si>
+    <t>Capability to add nested workflow on conditional workflow</t>
+  </si>
+  <si>
+    <t>Modify should work on conditional workflow</t>
+  </si>
+  <si>
+    <t>Delete a specific shape on conditional workflow</t>
+  </si>
+  <si>
+    <t>TC-064</t>
+  </si>
+  <si>
+    <t>TC-065</t>
+  </si>
+  <si>
+    <t>TC-066</t>
+  </si>
+  <si>
+    <t>TC-067</t>
+  </si>
+  <si>
+    <t>TC-068</t>
+  </si>
+  <si>
+    <t>TC-069</t>
+  </si>
+  <si>
+    <t>TC-070</t>
+  </si>
+  <si>
+    <t>TC-071</t>
+  </si>
+  <si>
+    <t>TC-072</t>
+  </si>
+  <si>
+    <t>TC-073</t>
+  </si>
+  <si>
+    <t>TC-074</t>
+  </si>
+  <si>
+    <t>TC-075</t>
+  </si>
+  <si>
+    <t>TC-076</t>
+  </si>
+  <si>
+    <t>TC-077</t>
+  </si>
+  <si>
+    <t>TC-078</t>
+  </si>
+  <si>
+    <t>TC-079</t>
+  </si>
+  <si>
+    <t>TC-080</t>
+  </si>
+  <si>
+    <t>TC-081</t>
+  </si>
+  <si>
+    <t>TC-082</t>
+  </si>
+  <si>
+    <t>Cursor pointing should point to newly added shape</t>
   </si>
 </sst>
 </file>
@@ -492,7 +612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -515,11 +635,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -540,6 +671,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5442C6DF-9EED-412B-A4B9-E0469B0EAB07}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -865,817 +999,1187 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="46.6328125" customWidth="1"/>
     <col min="3" max="3" width="60.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F40" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+      <c r="C42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="B43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="D43" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F43" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-    </row>
-    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1686,22 +2190,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF42A9D6-71D5-47FA-850E-FB9E9EF71A71}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>137</v>
+      <c r="B2" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/testingScenario.xlsx
+++ b/Testing/testingScenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\priyanka\Git Projects\WorkflowCreator\workFlowCreator\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D482EC7-487F-4C38-84CC-13BDC215E280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D58767-3C8F-4B6F-9373-55AA2D5E034E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{431FCF67-B4BC-4555-9CF3-EE271EC3F6ED}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="219">
   <si>
     <t>Test Id</t>
   </si>
@@ -569,6 +569,126 @@
   </si>
   <si>
     <t>Cursor pointing should point to newly added shape</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Login page to register user should be available</t>
+  </si>
+  <si>
+    <t>Login page to logged in as registered user</t>
+  </si>
+  <si>
+    <t>On register page option to provide name, username, password and email id is available</t>
+  </si>
+  <si>
+    <t>Verify name fields allows upto 50 characters</t>
+  </si>
+  <si>
+    <t>Verify username fields allows upto 50 characters</t>
+  </si>
+  <si>
+    <t>Verify password is minimum of 15 characters</t>
+  </si>
+  <si>
+    <t>Verfiy password should not start with special characters</t>
+  </si>
+  <si>
+    <t>Verify  Email id is in format XXX@XXX.com</t>
+  </si>
+  <si>
+    <t>Login with the user created above and create the workflows</t>
+  </si>
+  <si>
+    <t>Viewing of the workflow is possible</t>
+  </si>
+  <si>
+    <t>Adding workflow is possible</t>
+  </si>
+  <si>
+    <t>Modifying workflow is possible</t>
+  </si>
+  <si>
+    <t>Deleting the workflow is possible</t>
+  </si>
+  <si>
+    <t>Logged in user name should be displayed on the worklfow screen</t>
+  </si>
+  <si>
+    <t>Logged in user name should be displayed on the mested worklfow screen</t>
+  </si>
+  <si>
+    <t>Create another user and loggin with it. Workflows created by 1st user should not be visible to the 2nd user</t>
+  </si>
+  <si>
+    <t>Logout button should be available</t>
+  </si>
+  <si>
+    <t>TC-083</t>
+  </si>
+  <si>
+    <t>TC-084</t>
+  </si>
+  <si>
+    <t>TC-085</t>
+  </si>
+  <si>
+    <t>TC-086</t>
+  </si>
+  <si>
+    <t>TC-087</t>
+  </si>
+  <si>
+    <t>TC-088</t>
+  </si>
+  <si>
+    <t>TC-089</t>
+  </si>
+  <si>
+    <t>TC-090</t>
+  </si>
+  <si>
+    <t>TC-091</t>
+  </si>
+  <si>
+    <t>TC-092</t>
+  </si>
+  <si>
+    <t>TC-093</t>
+  </si>
+  <si>
+    <t>TC-094</t>
+  </si>
+  <si>
+    <t>TC-095</t>
+  </si>
+  <si>
+    <t>TC-096</t>
+  </si>
+  <si>
+    <t>TC-097</t>
+  </si>
+  <si>
+    <t>TC-098</t>
+  </si>
+  <si>
+    <t>TC-099</t>
+  </si>
+  <si>
+    <t>TC-100</t>
+  </si>
+  <si>
+    <t>On click of the logout user should be navigated back to the login screen</t>
+  </si>
+  <si>
+    <t>User with same username should not be allowed to regsiter</t>
+  </si>
+  <si>
+    <t>TC-101</t>
+  </si>
+  <si>
+    <t>TC-102</t>
   </si>
 </sst>
 </file>
@@ -988,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5442C6DF-9EED-412B-A4B9-E0469B0EAB07}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2179,6 +2299,169 @@
       </c>
       <c r="C82" s="10" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B83" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/testingScenario.xlsx
+++ b/Testing/testingScenario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\priyanka\Git Projects\WorkflowCreator\workFlowCreator\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D58767-3C8F-4B6F-9373-55AA2D5E034E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E257CC86-F8F3-4021-BC02-01483ADC2580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{431FCF67-B4BC-4555-9CF3-EE271EC3F6ED}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="220">
   <si>
     <t>Test Id</t>
   </si>
@@ -689,6 +689,9 @@
   </si>
   <si>
     <t>TC-102</t>
+  </si>
+  <si>
+    <t>Result(21 March)</t>
   </si>
 </sst>
 </file>
@@ -1108,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5442C6DF-9EED-412B-A4B9-E0469B0EAB07}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:A102"/>
+    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1123,7 +1126,7 @@
     <col min="6" max="6" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1145,8 +1148,11 @@
       <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>48</v>
       </c>
@@ -1165,7 +1171,7 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
@@ -1184,7 +1190,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -1201,7 +1207,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -1218,7 +1224,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
@@ -1237,7 +1243,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>53</v>
       </c>
@@ -1254,7 +1260,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
@@ -1271,7 +1277,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
@@ -1288,7 +1294,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
@@ -1305,7 +1311,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
@@ -1322,7 +1328,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
@@ -1339,7 +1345,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>59</v>
       </c>
@@ -1356,7 +1362,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>60</v>
       </c>
@@ -1375,7 +1381,7 @@
       </c>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>61</v>
       </c>
@@ -1392,7 +1398,7 @@
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>62</v>
       </c>
@@ -1687,7 +1693,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>79</v>
       </c>
@@ -1704,7 +1710,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>80</v>
       </c>
@@ -1723,7 +1729,7 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>81</v>
       </c>
@@ -1742,7 +1748,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>82</v>
       </c>
@@ -1759,7 +1765,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>83</v>
       </c>
@@ -1778,7 +1784,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>84</v>
       </c>
@@ -1795,7 +1801,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>85</v>
       </c>
@@ -1812,7 +1818,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>86</v>
       </c>
@@ -1829,7 +1835,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>87</v>
       </c>
@@ -1846,7 +1852,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>88</v>
       </c>
@@ -1865,7 +1871,7 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>89</v>
       </c>
@@ -1884,7 +1890,7 @@
       </c>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>109</v>
       </c>
@@ -1898,8 +1904,11 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>110</v>
       </c>
@@ -1911,8 +1920,11 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>111</v>
       </c>
@@ -1924,8 +1936,11 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>112</v>
       </c>
@@ -1937,8 +1952,11 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>113</v>
       </c>
@@ -1950,8 +1968,11 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>114</v>
       </c>
@@ -1963,8 +1984,11 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H49" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>115</v>
       </c>
@@ -1976,8 +2000,11 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>116</v>
       </c>
@@ -1989,8 +2016,11 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>117</v>
       </c>
@@ -2002,8 +2032,11 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>118</v>
       </c>
@@ -2015,8 +2048,11 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>119</v>
       </c>
@@ -2028,8 +2064,11 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>120</v>
       </c>
@@ -2041,8 +2080,11 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>121</v>
       </c>
@@ -2054,8 +2096,11 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>122</v>
       </c>
@@ -2067,8 +2112,11 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>123</v>
       </c>
@@ -2080,8 +2128,11 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>124</v>
       </c>
@@ -2093,8 +2144,11 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>125</v>
       </c>
@@ -2106,8 +2160,11 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>128</v>
       </c>
@@ -2119,8 +2176,11 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>129</v>
       </c>
@@ -2132,8 +2192,11 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>131</v>
       </c>
@@ -2145,8 +2208,11 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>159</v>
       </c>
